--- a/LOGS/20b5ede5-d85a-4dd1-a489-8eeefb513242/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/20b5ede5-d85a-4dd1-a489-8eeefb513242/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="85">
   <si>
     <t>rows</t>
   </si>
@@ -43,6 +43,18 @@
     <t>value</t>
   </si>
   <si>
+    <t>Current Trade receivables</t>
+  </si>
+  <si>
+    <t>Current Other receivables and prepayments</t>
+  </si>
+  <si>
+    <t>Current Loan to Boyne Smelters Limited (Note 20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current </t>
+  </si>
+  <si>
     <t>Stock on hand (Lines 1 and 2) Alumina</t>
   </si>
   <si>
@@ -190,12 +202,6 @@
     <t xml:space="preserve"> Provision for rehabilitation, restoration and closure obligation</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Unwinding of the discount and changes in discount rate</t>
   </si>
   <si>
@@ -241,6 +247,27 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Type of goods Sale of aluminium ingots</t>
+  </si>
+  <si>
+    <t>Type of goods Supply of power</t>
+  </si>
+  <si>
+    <t>Type of goods Total revenue from contracts with customers</t>
+  </si>
+  <si>
+    <t>Type of goods Japan</t>
+  </si>
+  <si>
+    <t>Type of goods Australia</t>
+  </si>
+  <si>
+    <t>Timing of revenue recognition Goods transferred at a point in time</t>
+  </si>
+  <si>
+    <t>Timing of revenue recognition Total revenue from contracts with customers</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Interest income</t>
   </si>
   <si>
@@ -254,6 +281,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Net finance costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cash at banks</t>
   </si>
 </sst>
 </file>
@@ -611,12 +641,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3">
+        <v>2332066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
+      </c>
+      <c r="D4">
+        <v>4784487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
+      </c>
+      <c r="D5">
+        <v>2115641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
+        <v>9232194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7">
+        <v>1960802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8">
+        <v>11216249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9">
+        <v>2646519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10">
+        <v>2346743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11">
+        <v>18170313</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -645,10 +800,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
       </c>
       <c r="D2">
         <v>29357639</v>
@@ -656,10 +811,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
       </c>
       <c r="D3">
         <v>27490442</v>
@@ -694,10 +849,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -708,10 +863,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -722,10 +877,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -736,10 +891,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -750,10 +905,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -791,10 +946,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -805,10 +960,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -819,10 +974,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -833,10 +988,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -847,10 +1002,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -861,10 +1016,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -875,10 +1030,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -889,10 +1044,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -903,10 +1058,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -917,10 +1072,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -931,10 +1086,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -945,10 +1100,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -959,10 +1114,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -973,10 +1128,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>2021</v>
@@ -987,10 +1142,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>2021</v>
@@ -1001,10 +1156,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -1015,10 +1170,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -1029,10 +1184,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19">
         <v>2021</v>
@@ -1043,10 +1198,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20">
         <v>2021</v>
@@ -1057,10 +1212,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>2021</v>
@@ -1071,10 +1226,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -1085,10 +1240,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -1099,10 +1254,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>2021</v>
@@ -1113,10 +1268,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25">
         <v>2021</v>
@@ -1127,10 +1282,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>2020</v>
@@ -1141,10 +1296,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -1155,10 +1310,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>2021</v>
@@ -1169,10 +1324,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -1183,10 +1338,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30">
         <v>2020</v>
@@ -1197,10 +1352,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31">
         <v>2021</v>
@@ -1211,10 +1366,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C32">
         <v>2021</v>
@@ -1225,10 +1380,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>2021</v>
@@ -1256,12 +1411,203 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>135629542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3">
+        <v>25136861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
+      </c>
+      <c r="D4">
+        <v>160766403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
+        <v>25136861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="D7">
+        <v>160766403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>160766403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>160766403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10">
+        <v>122789076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11">
+        <v>21666331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12">
+        <v>144455407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13">
+        <v>122789076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14">
+        <v>21666331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>2020</v>
+      </c>
+      <c r="D15">
+        <v>144455407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16">
+        <v>144455407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
+      </c>
+      <c r="D17">
+        <v>144455407</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1290,10 +1636,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
       </c>
       <c r="D2">
         <v>236082</v>
@@ -1301,10 +1647,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
       </c>
       <c r="D3">
         <v>236082</v>
@@ -1312,10 +1658,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
       </c>
       <c r="D4">
         <v>2559370</v>
@@ -1323,10 +1669,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
       </c>
       <c r="D5">
         <v>2559370</v>
@@ -1334,10 +1680,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
       </c>
       <c r="D6">
         <v>-2323288</v>
@@ -1345,10 +1691,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
       </c>
       <c r="D7">
         <v>425632</v>
@@ -1356,10 +1702,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
+        <v>80</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
       </c>
       <c r="D8">
         <v>425632</v>
@@ -1367,10 +1713,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
       </c>
       <c r="D9">
         <v>2111740</v>
@@ -1378,10 +1724,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
       </c>
       <c r="D10">
         <v>2111740</v>
@@ -1389,10 +1735,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
       </c>
       <c r="D11">
         <v>-1686108</v>
@@ -1405,12 +1751,49 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>39750963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3">
+        <v>33141783</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1439,10 +1822,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -1453,10 +1836,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -1467,10 +1850,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -1481,10 +1864,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -1495,10 +1878,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -1509,10 +1892,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -1523,10 +1906,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -1537,10 +1920,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -1551,10 +1934,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -1565,10 +1948,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -1579,10 +1962,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -1593,10 +1976,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -1607,10 +1990,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -1621,10 +2004,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -1635,10 +2018,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -1649,10 +2032,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>2020</v>
@@ -1663,10 +2046,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>2020</v>
@@ -1677,10 +2060,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>2020</v>
@@ -1691,10 +2074,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>2020</v>
@@ -1705,10 +2088,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>2020</v>
@@ -1758,10 +2141,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -1772,10 +2155,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -1786,10 +2169,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -1800,10 +2183,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -1814,10 +2197,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -1828,10 +2211,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -1842,10 +2225,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -1856,10 +2239,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -1870,10 +2253,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -1884,10 +2267,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -1898,10 +2281,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -1912,10 +2295,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -1926,10 +2309,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>2021</v>
@@ -1940,10 +2323,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>2021</v>
@@ -1954,10 +2337,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>2021</v>
@@ -1968,10 +2351,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -1982,10 +2365,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>2021</v>
@@ -1996,10 +2379,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>2021</v>
@@ -2010,10 +2393,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>2021</v>
@@ -2024,10 +2407,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>2021</v>
@@ -2038,10 +2421,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -2052,10 +2435,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>2020</v>
@@ -2066,10 +2449,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>2021</v>
@@ -2080,10 +2463,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>2021</v>
@@ -2094,10 +2477,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -2108,10 +2491,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -2122,10 +2505,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>2021</v>
@@ -2136,10 +2519,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -2150,10 +2533,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>2021</v>
@@ -2164,10 +2547,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>2021</v>
@@ -2178,10 +2561,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>2021</v>
@@ -2192,10 +2575,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>2021</v>
@@ -2206,10 +2589,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>2020</v>
@@ -2220,10 +2603,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>2021</v>
@@ -2234,10 +2617,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C36">
         <v>2021</v>
@@ -2248,10 +2631,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C37">
         <v>2021</v>
@@ -2262,10 +2645,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C38">
         <v>2021</v>
@@ -2276,10 +2659,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>2021</v>
@@ -2290,10 +2673,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C40">
         <v>2021</v>
@@ -2304,10 +2687,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>2021</v>
@@ -2318,10 +2701,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C42">
         <v>2021</v>
@@ -2332,10 +2715,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>2021</v>
@@ -2346,10 +2729,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C44">
         <v>2021</v>
@@ -2360,10 +2743,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C45">
         <v>2020</v>
@@ -2374,10 +2757,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C46">
         <v>2021</v>
@@ -2388,10 +2771,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C47">
         <v>2021</v>
@@ -2402,10 +2785,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -2416,10 +2799,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C49">
         <v>2021</v>
@@ -2430,10 +2813,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C50">
         <v>2021</v>
@@ -2444,10 +2827,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C51">
         <v>2021</v>
@@ -2458,10 +2841,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C52">
         <v>2021</v>
@@ -2472,10 +2855,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C53">
         <v>2021</v>
@@ -2486,10 +2869,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C54">
         <v>2021</v>
@@ -2500,10 +2883,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C55">
         <v>2021</v>
@@ -2514,10 +2897,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C56">
         <v>2020</v>
@@ -2528,10 +2911,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C57">
         <v>2021</v>
@@ -2542,10 +2925,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C58">
         <v>2021</v>
@@ -2556,10 +2939,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C59">
         <v>2021</v>
@@ -2570,10 +2953,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C60">
         <v>2021</v>
@@ -2584,10 +2967,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C61">
         <v>2021</v>
@@ -2598,10 +2981,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C62">
         <v>2021</v>
@@ -2612,10 +2995,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C63">
         <v>2021</v>
@@ -2626,10 +3009,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C64">
         <v>2021</v>
@@ -2640,10 +3023,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C65">
         <v>2021</v>
@@ -2654,10 +3037,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C66">
         <v>2021</v>
@@ -2668,10 +3051,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C67">
         <v>2020</v>
@@ -2709,10 +3092,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -2723,10 +3106,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -2737,10 +3120,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -2751,10 +3134,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -2765,10 +3148,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -2779,10 +3162,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -2793,10 +3176,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -2807,10 +3190,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -2821,10 +3204,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -2835,10 +3218,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -2849,10 +3232,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -2863,10 +3246,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -2877,10 +3260,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>2021</v>
@@ -2891,10 +3274,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>2021</v>
@@ -2905,10 +3288,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16">
         <v>2021</v>
@@ -2919,10 +3302,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -2933,10 +3316,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>2021</v>
@@ -2947,10 +3330,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>2020</v>
@@ -2961,10 +3344,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>2021</v>
@@ -2975,10 +3358,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>2021</v>
@@ -2989,10 +3372,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -3003,10 +3386,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -3017,10 +3400,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>2021</v>
@@ -3031,10 +3414,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C25">
         <v>2021</v>
@@ -3045,10 +3428,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -3059,10 +3442,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -3073,10 +3456,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>2020</v>
@@ -3114,10 +3497,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -3128,10 +3511,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -3142,10 +3525,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -3156,10 +3539,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -3170,10 +3553,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -3184,10 +3567,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -3198,10 +3581,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -3212,10 +3595,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -3226,10 +3609,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2020</v>
@@ -3240,10 +3623,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -3254,10 +3637,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -3268,10 +3651,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>2020</v>
@@ -3282,10 +3665,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>2020</v>
@@ -3296,10 +3679,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2020</v>
@@ -3310,10 +3693,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -3324,10 +3707,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>2020</v>
@@ -3365,10 +3748,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -3379,10 +3762,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -3420,10 +3803,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -3434,10 +3817,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -3448,10 +3831,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -3462,10 +3845,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -3476,10 +3859,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -3490,10 +3873,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -3504,10 +3887,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -3518,10 +3901,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2020</v>
@@ -3559,10 +3942,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -3573,10 +3956,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -3587,10 +3970,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -3601,10 +3984,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>2020</v>
